--- a/tools/excel/iso/iso42001-2023.xlsx
+++ b/tools/excel/iso/iso42001-2023.xlsx
@@ -2,709 +2,951 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11207"/>
-  <workbookPr defaultThemeVersion="202300"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/abder/mydev/intuitem/staging/ciso-assistant-community/tools/excel/iso/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22E0AD2A-2C1B-8E4F-8A1E-1EF94DFF8211}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67C4B380-5EFF-F643-8E60-CBBC79AFB991}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="160" yWindow="840" windowWidth="34240" windowHeight="21340" xr2:uid="{C1B9C957-850F-8443-8E06-CB4E729FFF6E}"/>
+    <workbookView xWindow="-28640" yWindow="-28020" windowWidth="28480" windowHeight="50260" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="library_meta" sheetId="4" r:id="rId1"/>
-    <sheet name="requirements_meta" sheetId="5" r:id="rId2"/>
-    <sheet name="requirements_content" sheetId="1" r:id="rId3"/>
-    <sheet name="scores_meta" sheetId="3" r:id="rId4"/>
-    <sheet name="scores_content" sheetId="2" r:id="rId5"/>
+    <sheet name="library_meta" sheetId="1" r:id="rId1"/>
+    <sheet name="requirements_meta" sheetId="2" r:id="rId2"/>
+    <sheet name="requirements_content" sheetId="3" r:id="rId3"/>
+    <sheet name="scores_meta" sheetId="4" r:id="rId4"/>
+    <sheet name="scores_content" sheetId="5" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="181029"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="216">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="391" uniqueCount="304">
+  <si>
+    <t>type</t>
+  </si>
+  <si>
+    <t>library</t>
+  </si>
+  <si>
+    <t>urn</t>
+  </si>
+  <si>
+    <t>urn:intuitem:risk:library:iso42001-2023</t>
+  </si>
+  <si>
+    <t>version</t>
+  </si>
+  <si>
+    <t>publication_date</t>
+  </si>
+  <si>
+    <t>locale</t>
+  </si>
+  <si>
+    <t>en</t>
+  </si>
+  <si>
+    <t>ref_id</t>
+  </si>
+  <si>
+    <t>iso42001-2023</t>
+  </si>
   <si>
     <t>name</t>
   </si>
   <si>
-    <t>ref_id</t>
+    <t>ISO 42001-2023 — Artificial intelligence  — Requirements outline</t>
   </si>
   <si>
     <t>description</t>
-  </si>
-  <si>
-    <t>assessable</t>
-  </si>
-  <si>
-    <t>depth</t>
-  </si>
-  <si>
-    <t>type</t>
-  </si>
-  <si>
-    <t>scores</t>
-  </si>
-  <si>
-    <t>score</t>
-  </si>
-  <si>
-    <t>library</t>
-  </si>
-  <si>
-    <t>urn</t>
-  </si>
-  <si>
-    <t>version</t>
-  </si>
-  <si>
-    <t>publication_date</t>
-  </si>
-  <si>
-    <t>locale</t>
-  </si>
-  <si>
-    <t>en</t>
-  </si>
-  <si>
-    <t>copyright</t>
-  </si>
-  <si>
-    <t>provider</t>
-  </si>
-  <si>
-    <t>packager</t>
-  </si>
-  <si>
-    <t>intuitem</t>
-  </si>
-  <si>
-    <t>framework</t>
-  </si>
-  <si>
-    <t>base_urn</t>
-  </si>
-  <si>
-    <t>min_score</t>
-  </si>
-  <si>
-    <t>max_score</t>
-  </si>
-  <si>
-    <t>scores_definition</t>
-  </si>
-  <si>
-    <t>x</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>Context of the organization</t>
-  </si>
-  <si>
-    <t>4.1</t>
-  </si>
-  <si>
-    <t>Understanding the organization and its context</t>
-  </si>
-  <si>
-    <t>4.2</t>
-  </si>
-  <si>
-    <t>Understanding the needs and expectations of interested parties</t>
-  </si>
-  <si>
-    <t>General</t>
-  </si>
-  <si>
-    <t>4.3</t>
-  </si>
-  <si>
-    <t>4.4</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>Leadership</t>
-  </si>
-  <si>
-    <t>5.1</t>
-  </si>
-  <si>
-    <t>Leadership and commitment</t>
-  </si>
-  <si>
-    <t>5.2</t>
-  </si>
-  <si>
-    <t>5.3</t>
-  </si>
-  <si>
-    <t>Roles, responsibilities and authorities</t>
-  </si>
-  <si>
-    <t>6</t>
-  </si>
-  <si>
-    <t>Planning</t>
-  </si>
-  <si>
-    <t>6.1</t>
-  </si>
-  <si>
-    <t>Actions to address risks and opportunities</t>
-  </si>
-  <si>
-    <t>6.2</t>
-  </si>
-  <si>
-    <t>6.3</t>
-  </si>
-  <si>
-    <t>7</t>
-  </si>
-  <si>
-    <t>Support</t>
-  </si>
-  <si>
-    <t>7.1</t>
-  </si>
-  <si>
-    <t>Resources</t>
-  </si>
-  <si>
-    <t>7.2</t>
-  </si>
-  <si>
-    <t>Competence</t>
-  </si>
-  <si>
-    <t>7.3</t>
-  </si>
-  <si>
-    <t>Awareness</t>
-  </si>
-  <si>
-    <t>7.4</t>
-  </si>
-  <si>
-    <t>Communication</t>
-  </si>
-  <si>
-    <t>7.5</t>
-  </si>
-  <si>
-    <t>Documented information</t>
-  </si>
-  <si>
-    <t>7.5.1</t>
-  </si>
-  <si>
-    <t>7.5.2</t>
-  </si>
-  <si>
-    <t>7.5.3</t>
-  </si>
-  <si>
-    <t>Control of documented information</t>
-  </si>
-  <si>
-    <t>8</t>
-  </si>
-  <si>
-    <t>Operation</t>
-  </si>
-  <si>
-    <t>8.1</t>
-  </si>
-  <si>
-    <t>Operational planning and control</t>
-  </si>
-  <si>
-    <t>8.2</t>
-  </si>
-  <si>
-    <t>8.3</t>
-  </si>
-  <si>
-    <t>8.4</t>
-  </si>
-  <si>
-    <t>9</t>
-  </si>
-  <si>
-    <t>Performance evaluation</t>
-  </si>
-  <si>
-    <t>9.1</t>
-  </si>
-  <si>
-    <t>Monitoring, measurement, analysis and evaluation</t>
-  </si>
-  <si>
-    <t>9.2</t>
-  </si>
-  <si>
-    <t>Internal audit</t>
-  </si>
-  <si>
-    <t>9.2.1</t>
-  </si>
-  <si>
-    <t>9.2.2</t>
-  </si>
-  <si>
-    <t>9.3</t>
-  </si>
-  <si>
-    <t>Management review</t>
-  </si>
-  <si>
-    <t>9.3.1</t>
-  </si>
-  <si>
-    <t>9.3.2</t>
-  </si>
-  <si>
-    <t>9.3.3</t>
-  </si>
-  <si>
-    <t>10</t>
-  </si>
-  <si>
-    <t>Improvement</t>
-  </si>
-  <si>
-    <t>10.1</t>
-  </si>
-  <si>
-    <t>Nonconformity and corrective action</t>
-  </si>
-  <si>
-    <t>10.2</t>
-  </si>
-  <si>
-    <t>Continual improvement</t>
-  </si>
-  <si>
-    <t>ISO - You can purchase the standard for full details.</t>
-  </si>
-  <si>
-    <t>ISO</t>
-  </si>
-  <si>
-    <t>Initial</t>
-  </si>
-  <si>
-    <t>Managed</t>
-  </si>
-  <si>
-    <t>Defined</t>
-  </si>
-  <si>
-    <t>Quantitatively managed</t>
-  </si>
-  <si>
-    <t>Optimizing</t>
-  </si>
-  <si>
-    <t>Incomplete</t>
-  </si>
-  <si>
-    <t>Ad hoc and unknown</t>
-  </si>
-  <si>
-    <t>Unpredictable and reactive</t>
-  </si>
-  <si>
-    <t>Managed on the project level</t>
-  </si>
-  <si>
-    <t>Proactive, rather than reactive</t>
-  </si>
-  <si>
-    <t>Measured and controlled</t>
-  </si>
-  <si>
-    <t>Stable and flexible</t>
-  </si>
-  <si>
-    <t>urn:intuitem:risk:library:iso42001-2023</t>
-  </si>
-  <si>
-    <t>iso42001-2023</t>
-  </si>
-  <si>
-    <t>ISO 42001-2023 — Artificial intelligence  — Requirements outline</t>
   </si>
   <si>
     <t>Outline of ISO 42001-2023 -  Artificial intelligence Management system with Appendix A for reference controls.
 You can purchase the standard for full details.</t>
   </si>
   <si>
+    <t>copyright</t>
+  </si>
+  <si>
+    <t>ISO - You can purchase the standard for full details.</t>
+  </si>
+  <si>
+    <t>provider</t>
+  </si>
+  <si>
+    <t>ISO</t>
+  </si>
+  <si>
+    <t>packager</t>
+  </si>
+  <si>
+    <t>intuitem</t>
+  </si>
+  <si>
+    <t>framework</t>
+  </si>
+  <si>
+    <t>base_urn</t>
+  </si>
+  <si>
     <t>urn:intuitem:risk:req_node:iso42001-2023</t>
   </si>
   <si>
     <t>urn:intuitem:risk:framework:iso42001-2023</t>
   </si>
   <si>
+    <t>min_score</t>
+  </si>
+  <si>
+    <t>max_score</t>
+  </si>
+  <si>
+    <t>scores_definition</t>
+  </si>
+  <si>
+    <t>scores</t>
+  </si>
+  <si>
+    <t>assessable</t>
+  </si>
+  <si>
+    <t>depth</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>Context of the organization</t>
+  </si>
+  <si>
+    <t>Requirements for establishing the organizational context for AI management.</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>4.1</t>
+  </si>
+  <si>
+    <t>Understanding the organization and its context</t>
+  </si>
+  <si>
+    <t>Identify internal and external factors relevant to AI system development and use.</t>
+  </si>
+  <si>
+    <t>4.2</t>
+  </si>
+  <si>
+    <t>Understanding the needs and expectations of interested parties</t>
+  </si>
+  <si>
+    <t>Determine stakeholder requirements and expectations for AI systems.</t>
+  </si>
+  <si>
+    <t>4.3</t>
+  </si>
+  <si>
     <t>Determining the scope of the AI management system</t>
   </si>
   <si>
+    <t>Define boundaries and applicability of the AI management system.</t>
+  </si>
+  <si>
+    <t>4.4</t>
+  </si>
+  <si>
     <t>AI management system</t>
   </si>
   <si>
+    <t>Establish, implement, maintain and improve the AI management system.</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>Leadership</t>
+  </si>
+  <si>
+    <t>Requirements for leadership commitment and organizational direction.</t>
+  </si>
+  <si>
+    <t>5.1</t>
+  </si>
+  <si>
+    <t>Leadership and commitment</t>
+  </si>
+  <si>
+    <t>Demonstrate commitment to AI governance through active leadership involvement.</t>
+  </si>
+  <si>
+    <t>5.2</t>
+  </si>
+  <si>
     <t>AI policy</t>
   </si>
   <si>
+    <t>Establish an AI policy appropriate to organizational purpose and objectives.</t>
+  </si>
+  <si>
+    <t>5.3</t>
+  </si>
+  <si>
+    <t>Roles, responsibilities and authorities</t>
+  </si>
+  <si>
+    <t>Assign and communicate AI-related roles, responsibilities and authorities.</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>Planning</t>
+  </si>
+  <si>
+    <t>Requirements for planning AI management activities.</t>
+  </si>
+  <si>
+    <t>6.1</t>
+  </si>
+  <si>
+    <t>Actions to address risks and opportunities</t>
+  </si>
+  <si>
+    <t>Identify and address AI-related risks and opportunities.</t>
+  </si>
+  <si>
+    <t>6.2</t>
+  </si>
+  <si>
     <t>AI objectives and planning to achieve them</t>
   </si>
   <si>
+    <t>Establish measurable AI objectives and plans to achieve them.</t>
+  </si>
+  <si>
+    <t>6.3</t>
+  </si>
+  <si>
     <t>Planning of changes</t>
   </si>
   <si>
+    <t>Plan and manage changes to the AI management system.</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>Support</t>
+  </si>
+  <si>
+    <t>Requirements for supporting resources and capabilities.</t>
+  </si>
+  <si>
+    <t>7.1</t>
+  </si>
+  <si>
+    <t>Resources</t>
+  </si>
+  <si>
+    <t>Determine and provide resources needed for AI management.</t>
+  </si>
+  <si>
+    <t>7.2</t>
+  </si>
+  <si>
+    <t>Competence</t>
+  </si>
+  <si>
+    <t>Ensure personnel have necessary competence for AI-related activities.</t>
+  </si>
+  <si>
+    <t>7.3</t>
+  </si>
+  <si>
+    <t>Awareness</t>
+  </si>
+  <si>
+    <t>Ensure awareness of AI policy, roles and system implications.</t>
+  </si>
+  <si>
+    <t>7.4</t>
+  </si>
+  <si>
+    <t>Communication</t>
+  </si>
+  <si>
+    <t>Determine internal and external communication requirements for AI.</t>
+  </si>
+  <si>
+    <t>7.5</t>
+  </si>
+  <si>
+    <t>Documented information</t>
+  </si>
+  <si>
+    <t>Requirements for managing documented information.</t>
+  </si>
+  <si>
+    <t>7.5.1</t>
+  </si>
+  <si>
+    <t>General</t>
+  </si>
+  <si>
+    <t>Include required documented information in the AI management system.</t>
+  </si>
+  <si>
+    <t>7.5.2</t>
+  </si>
+  <si>
     <t>Creating and updating documented information</t>
   </si>
   <si>
+    <t>Ensure proper identification, format and review of documentation.</t>
+  </si>
+  <si>
+    <t>7.5.3</t>
+  </si>
+  <si>
+    <t>Control of documented information</t>
+  </si>
+  <si>
+    <t>Control availability, distribution and protection of documentation.</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>Operation</t>
+  </si>
+  <si>
+    <t>Requirements for operational implementation of AI management.</t>
+  </si>
+  <si>
+    <t>8.1</t>
+  </si>
+  <si>
+    <t>Operational planning and control</t>
+  </si>
+  <si>
+    <t>Plan, implement and control processes for AI system operations.</t>
+  </si>
+  <si>
+    <t>8.2</t>
+  </si>
+  <si>
     <t>AI risk assessment</t>
   </si>
   <si>
+    <t>Conduct risk assessments for AI systems considering impacts and likelihood.</t>
+  </si>
+  <si>
+    <t>8.3</t>
+  </si>
+  <si>
     <t>AI risk treatment</t>
   </si>
   <si>
+    <t>Select and implement appropriate AI risk treatment options.</t>
+  </si>
+  <si>
+    <t>8.4</t>
+  </si>
+  <si>
     <t>AI system impact assessment</t>
   </si>
   <si>
+    <t>Assess potential impacts of AI systems on individuals and society.</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>Performance evaluation</t>
+  </si>
+  <si>
+    <t>Requirements for evaluating AI management performance.</t>
+  </si>
+  <si>
+    <t>9.1</t>
+  </si>
+  <si>
+    <t>Monitoring, measurement, analysis and evaluation</t>
+  </si>
+  <si>
+    <t>Monitor, measure, analyze and evaluate AI system performance.</t>
+  </si>
+  <si>
+    <t>9.2</t>
+  </si>
+  <si>
+    <t>Internal audit</t>
+  </si>
+  <si>
+    <t>Requirements for conducting internal audits.</t>
+  </si>
+  <si>
+    <t>9.2.1</t>
+  </si>
+  <si>
+    <t>Conduct internal audits at planned intervals.</t>
+  </si>
+  <si>
+    <t>9.2.2</t>
+  </si>
+  <si>
     <t>Internal audit programme</t>
   </si>
   <si>
+    <t>Plan, establish and maintain an internal audit programme.</t>
+  </si>
+  <si>
+    <t>9.3</t>
+  </si>
+  <si>
+    <t>Management review</t>
+  </si>
+  <si>
+    <t>Requirements for management review of the AI management system.</t>
+  </si>
+  <si>
+    <t>9.3.1</t>
+  </si>
+  <si>
+    <t>Review the AI management system at planned intervals.</t>
+  </si>
+  <si>
+    <t>9.3.2</t>
+  </si>
+  <si>
     <t>Management review inputs</t>
   </si>
   <si>
+    <t>Include specified inputs in management reviews.</t>
+  </si>
+  <si>
+    <t>9.3.3</t>
+  </si>
+  <si>
     <t>Management review results</t>
   </si>
   <si>
+    <t>Document decisions and actions from management reviews.</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>Improvement</t>
+  </si>
+  <si>
+    <t>Requirements for continual improvement of AI management.</t>
+  </si>
+  <si>
+    <t>10.1</t>
+  </si>
+  <si>
+    <t>Continual improvement</t>
+  </si>
+  <si>
+    <t>Continually improve suitability, adequacy and effectiveness of AI management.</t>
+  </si>
+  <si>
+    <t>10.2</t>
+  </si>
+  <si>
+    <t>Nonconformity and corrective action</t>
+  </si>
+  <si>
+    <t>React to nonconformities and take corrective action.</t>
+  </si>
+  <si>
     <t>A.2</t>
   </si>
   <si>
     <t>Policies related to AI</t>
   </si>
   <si>
+    <t>Controls for establishing AI-related policies.</t>
+  </si>
+  <si>
     <t>A.2.2</t>
   </si>
   <si>
+    <t>Define and communicate the organization's AI policy.</t>
+  </si>
+  <si>
     <t>A.2.3</t>
   </si>
   <si>
     <t>Alignment with other organizational policies</t>
   </si>
   <si>
+    <t>Ensure AI policy aligns with other organizational policies.</t>
+  </si>
+  <si>
     <t>A.2.4</t>
   </si>
   <si>
     <t>Review of the AI policy</t>
   </si>
   <si>
+    <t>Review AI policy at defined intervals or upon significant changes.</t>
+  </si>
+  <si>
     <t>A.3</t>
   </si>
   <si>
     <t>Internal organization</t>
   </si>
   <si>
+    <t>Controls for internal AI governance structure.</t>
+  </si>
+  <si>
     <t>A.3.2</t>
   </si>
   <si>
     <t>AI roles and responsibilities</t>
   </si>
   <si>
+    <t>Define roles and responsibilities for AI system activities.</t>
+  </si>
+  <si>
     <t>A.3.3</t>
   </si>
   <si>
     <t>Reporting of concerns</t>
   </si>
   <si>
+    <t>Establish processes for reporting AI-related concerns.</t>
+  </si>
+  <si>
     <t>A.4</t>
   </si>
   <si>
     <t>Resources for AI systems</t>
   </si>
   <si>
+    <t>Controls for AI system resource management.</t>
+  </si>
+  <si>
     <t>A.4.2</t>
   </si>
   <si>
     <t>Resource documentation</t>
   </si>
   <si>
+    <t>Document resources required for AI system development and operation.</t>
+  </si>
+  <si>
     <t>A.4.3</t>
   </si>
   <si>
     <t>Data resources</t>
   </si>
   <si>
+    <t>Manage data resources used in AI systems.</t>
+  </si>
+  <si>
     <t>A.4.4</t>
   </si>
   <si>
     <t>Tooling resources</t>
   </si>
   <si>
+    <t>Manage tools used for AI system development and operation.</t>
+  </si>
+  <si>
     <t>A.4.5</t>
   </si>
   <si>
     <t>System and computing resources</t>
   </si>
   <si>
+    <t>Manage computing infrastructure for AI systems.</t>
+  </si>
+  <si>
     <t>A.4.6</t>
   </si>
   <si>
     <t>Human resources</t>
   </si>
   <si>
+    <t>Manage human resources involved in AI activities.</t>
+  </si>
+  <si>
     <t>A.5</t>
   </si>
   <si>
     <t>Assessing impacts of AI systems</t>
   </si>
   <si>
+    <t>Controls for AI impact assessment.</t>
+  </si>
+  <si>
     <t>A.5.2</t>
   </si>
   <si>
     <t>AI system impact assessment process</t>
   </si>
   <si>
+    <t>Establish processes for assessing AI system impacts.</t>
+  </si>
+  <si>
     <t>A.5.3</t>
   </si>
   <si>
     <t>Documentation of AI system impact assessments</t>
   </si>
   <si>
+    <t>Document AI system impact assessments.</t>
+  </si>
+  <si>
     <t>A.5.4</t>
   </si>
   <si>
     <t>Assessing AI system impact on individuals or groups of individuals</t>
   </si>
   <si>
+    <t>Assess impacts on individuals or groups affected by AI systems.</t>
+  </si>
+  <si>
     <t>A.5.5</t>
   </si>
   <si>
     <t>Assessing societal impacts of AI systems</t>
   </si>
   <si>
+    <t>Assess broader societal impacts of AI systems.</t>
+  </si>
+  <si>
     <t>A.6</t>
   </si>
   <si>
     <t>AI system life cycle</t>
   </si>
   <si>
+    <t>Controls for AI system development and operation lifecycle.</t>
+  </si>
+  <si>
     <t>A.6.1</t>
   </si>
   <si>
     <t>Management guidance for AI system development</t>
   </si>
   <si>
+    <t>Management guidance for responsible AI development.</t>
+  </si>
+  <si>
     <t>A.6.1.2</t>
   </si>
   <si>
     <t>Objectives for responsible development of AI system</t>
   </si>
   <si>
+    <t>Define objectives for responsible AI system development.</t>
+  </si>
+  <si>
     <t>A.6.1.3</t>
   </si>
   <si>
     <t>Processes for responsible AI system design and development</t>
   </si>
   <si>
+    <t>Establish processes for responsible AI design and development.</t>
+  </si>
+  <si>
     <t>A.6.2</t>
   </si>
   <si>
+    <t>Controls across AI system lifecycle stages.</t>
+  </si>
+  <si>
     <t>A.6.2.2</t>
   </si>
   <si>
     <t>AI system requirements and specification</t>
   </si>
   <si>
+    <t>Define and document AI system requirements and specifications.</t>
+  </si>
+  <si>
     <t>A.6.2.3</t>
   </si>
   <si>
     <t>Documentation of AI system design and development</t>
   </si>
   <si>
+    <t>Document AI system design and development activities.</t>
+  </si>
+  <si>
     <t>A.6.2.4</t>
   </si>
   <si>
     <t>AI system verification and validation</t>
   </si>
   <si>
+    <t>Verify and validate AI systems against requirements.</t>
+  </si>
+  <si>
     <t>A.6.2.5</t>
   </si>
   <si>
     <t>AI system deployment</t>
   </si>
   <si>
+    <t>Control deployment of AI systems into production.</t>
+  </si>
+  <si>
     <t>A.6.2.6</t>
   </si>
   <si>
     <t>AI system operation and monitoring</t>
   </si>
   <si>
+    <t>Monitor AI system operation and performance.</t>
+  </si>
+  <si>
     <t>A.6.2.7</t>
   </si>
   <si>
     <t>AI system technical documentation</t>
   </si>
   <si>
+    <t>Maintain technical documentation for AI systems.</t>
+  </si>
+  <si>
     <t>A.6.2.8</t>
   </si>
   <si>
     <t>AI system recording of event logs</t>
   </si>
   <si>
+    <t>Record event logs for AI system activities.</t>
+  </si>
+  <si>
     <t>A.7</t>
   </si>
   <si>
     <t>Data for AI systems</t>
   </si>
   <si>
+    <t>Controls for data management in AI systems.</t>
+  </si>
+  <si>
     <t>A.7.2</t>
   </si>
   <si>
     <t>Data for development and enhancement of AI system</t>
   </si>
   <si>
+    <t>Manage data used for AI system development and enhancement.</t>
+  </si>
+  <si>
     <t>A.7.3</t>
   </si>
   <si>
     <t>Acquisition of data</t>
   </si>
   <si>
+    <t>Control acquisition of data for AI systems.</t>
+  </si>
+  <si>
     <t>A.7.4</t>
   </si>
   <si>
     <t>Quality of data for AI systems</t>
   </si>
   <si>
+    <t>Ensure data quality meets AI system requirements.</t>
+  </si>
+  <si>
     <t>A.7.5</t>
   </si>
   <si>
     <t>Data provenance</t>
   </si>
   <si>
+    <t>Track and document data origin and lineage.</t>
+  </si>
+  <si>
     <t>A.7.6</t>
   </si>
   <si>
     <t>Data preparation</t>
   </si>
   <si>
+    <t>Control data preparation processes for AI systems.</t>
+  </si>
+  <si>
     <t>A.8</t>
   </si>
   <si>
     <t>Information for interested parties of AI systems</t>
   </si>
   <si>
+    <t>Controls for stakeholder information and communication.</t>
+  </si>
+  <si>
     <t>A.8.2</t>
   </si>
   <si>
     <t>System documentation and information for users</t>
   </si>
   <si>
+    <t>Provide system documentation and user information.</t>
+  </si>
+  <si>
     <t>A.8.3</t>
   </si>
   <si>
     <t>External reporting</t>
   </si>
   <si>
+    <t>Report externally on AI system activities as required.</t>
+  </si>
+  <si>
     <t>A.8.4</t>
   </si>
   <si>
     <t>Communication of incidents</t>
   </si>
   <si>
+    <t>Communicate AI-related incidents to relevant parties.</t>
+  </si>
+  <si>
     <t>A.8.5</t>
   </si>
   <si>
     <t>Information for interested parties</t>
   </si>
   <si>
+    <t>Provide information to interested parties about AI systems.</t>
+  </si>
+  <si>
     <t>A.9</t>
   </si>
   <si>
     <t>Use of AI systems</t>
   </si>
   <si>
+    <t>Controls for responsible use of AI systems.</t>
+  </si>
+  <si>
     <t>A.9.2</t>
   </si>
   <si>
     <t>Processes for responsible use of AI systems</t>
   </si>
   <si>
+    <t>Establish processes for responsible AI system use.</t>
+  </si>
+  <si>
     <t>A.9.3</t>
   </si>
   <si>
     <t>Objectives for responsible use of AI system</t>
   </si>
   <si>
+    <t>Define objectives for responsible use of AI systems.</t>
+  </si>
+  <si>
     <t>A.9.4</t>
   </si>
   <si>
     <t>Intended use of the AI system</t>
   </si>
   <si>
+    <t>Document and communicate intended use of AI systems.</t>
+  </si>
+  <si>
     <t>A.10</t>
   </si>
   <si>
     <t>Third-party and customer relationships</t>
   </si>
   <si>
+    <t>Controls for third-party and customer relationships.</t>
+  </si>
+  <si>
     <t>A.10.2</t>
   </si>
   <si>
     <t>Allocating responsibilities</t>
   </si>
   <si>
+    <t>Allocate AI-related responsibilities between parties.</t>
+  </si>
+  <si>
     <t>A.10.3</t>
   </si>
   <si>
     <t>Suppliers</t>
   </si>
   <si>
+    <t>Manage suppliers involved in AI system activities.</t>
+  </si>
+  <si>
     <t>A.10.4</t>
   </si>
   <si>
     <t>Customers</t>
+  </si>
+  <si>
+    <t>Manage customer relationships for AI systems.</t>
+  </si>
+  <si>
+    <t>score</t>
+  </si>
+  <si>
+    <t>Incomplete</t>
+  </si>
+  <si>
+    <t>Ad hoc and unknown</t>
+  </si>
+  <si>
+    <t>Initial</t>
+  </si>
+  <si>
+    <t>Unpredictable and reactive</t>
+  </si>
+  <si>
+    <t>Managed</t>
+  </si>
+  <si>
+    <t>Managed on the project level</t>
+  </si>
+  <si>
+    <t>Defined</t>
+  </si>
+  <si>
+    <t>Proactive, rather than reactive</t>
+  </si>
+  <si>
+    <t>Quantitatively managed</t>
+  </si>
+  <si>
+    <t>Measured and controlled</t>
+  </si>
+  <si>
+    <t>Optimizing</t>
+  </si>
+  <si>
+    <t>Stable and flexible</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Aptos Narrow"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="8"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -736,16 +978,16 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="22" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="22" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -754,7 +996,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1" xr:uid="{B4402DFC-A953-FA48-B6B6-42F7AC201178}"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1085,39 +1327,40 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42A14827-EDC4-A84F-B393-2E57779FA06F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B11"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="263" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView zoomScale="263" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="13.5" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="85.1640625" style="2" customWidth="1"/>
-    <col min="3" max="16384" width="8.83203125" style="2"/>
+    <col min="3" max="3" width="8.83203125" style="2" customWidth="1"/>
+    <col min="4" max="16384" width="8.83203125" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>102</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="B3" s="2">
         <v>1</v>
@@ -1125,7 +1368,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="B4" s="3">
         <v>46006</v>
@@ -1133,34 +1376,34 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>103</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" ht="32" x14ac:dyDescent="0.2">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="32" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>105</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
@@ -1168,23 +1411,23 @@
         <v>14</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>88</v>
+        <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>89</v>
+        <v>17</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>
@@ -1194,7 +1437,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{673D17F9-05BA-F543-9567-B2001588087D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView zoomScale="186" workbookViewId="0">
@@ -1205,60 +1448,61 @@
   <cols>
     <col min="1" max="1" width="27" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="91.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="8.83203125" style="2"/>
+    <col min="3" max="3" width="8.83203125" style="2" customWidth="1"/>
+    <col min="4" max="16384" width="8.83203125" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>106</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>107</v>
+        <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>103</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" ht="32" x14ac:dyDescent="0.2">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="32" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>105</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B7" s="2">
         <v>0</v>
@@ -1266,7 +1510,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B8" s="2">
         <v>5</v>
@@ -1274,10 +1518,10 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>6</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -1287,11 +1531,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{849FBD4A-EA94-AF41-9BE9-A360FB46E498}">
-  <dimension ref="A1:D89"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:E89"/>
   <sheetViews>
-    <sheetView zoomScale="200" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView tabSelected="1" zoomScale="200" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1300,1200 +1544,1467 @@
     <col min="2" max="2" width="5.83203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="6.6640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="53.83203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="69.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>3</v>
+        <v>28</v>
       </c>
       <c r="B1" t="s">
-        <v>4</v>
+        <v>29</v>
       </c>
       <c r="C1" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="D1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+      <c r="E1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B2">
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="D2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+        <v>31</v>
+      </c>
+      <c r="E2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="B3">
         <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="D3" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+        <v>35</v>
+      </c>
+      <c r="E3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="B4">
         <v>2</v>
       </c>
       <c r="C4" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="D4" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+        <v>38</v>
+      </c>
+      <c r="E4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="B5">
         <v>2</v>
       </c>
       <c r="C5" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="D5" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+        <v>41</v>
+      </c>
+      <c r="E5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="B6">
         <v>2</v>
       </c>
       <c r="C6" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="D6" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+        <v>44</v>
+      </c>
+      <c r="E6" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B7">
         <v>1</v>
       </c>
       <c r="C7" t="s">
-        <v>33</v>
+        <v>46</v>
       </c>
       <c r="D7" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+        <v>47</v>
+      </c>
+      <c r="E7" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="B8">
         <v>2</v>
       </c>
       <c r="C8" t="s">
-        <v>35</v>
+        <v>49</v>
       </c>
       <c r="D8" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+        <v>50</v>
+      </c>
+      <c r="E8" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="B9">
         <v>2</v>
       </c>
       <c r="C9" t="s">
-        <v>37</v>
+        <v>52</v>
       </c>
       <c r="D9" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+        <v>53</v>
+      </c>
+      <c r="E9" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="B10">
         <v>2</v>
       </c>
       <c r="C10" t="s">
-        <v>38</v>
+        <v>55</v>
       </c>
       <c r="D10" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+        <v>56</v>
+      </c>
+      <c r="E10" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B11">
         <v>1</v>
       </c>
       <c r="C11" t="s">
-        <v>40</v>
+        <v>58</v>
       </c>
       <c r="D11" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+        <v>59</v>
+      </c>
+      <c r="E11" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="B12">
         <v>2</v>
       </c>
       <c r="C12" t="s">
-        <v>42</v>
+        <v>61</v>
       </c>
       <c r="D12" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+        <v>62</v>
+      </c>
+      <c r="E12" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="B13">
         <v>2</v>
       </c>
       <c r="C13" t="s">
-        <v>44</v>
+        <v>64</v>
       </c>
       <c r="D13" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+        <v>65</v>
+      </c>
+      <c r="E13" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="B14">
         <v>2</v>
       </c>
       <c r="C14" t="s">
-        <v>45</v>
+        <v>67</v>
       </c>
       <c r="D14" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+        <v>68</v>
+      </c>
+      <c r="E14" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B15">
         <v>1</v>
       </c>
       <c r="C15" t="s">
-        <v>46</v>
+        <v>70</v>
       </c>
       <c r="D15" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+        <v>71</v>
+      </c>
+      <c r="E15" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="B16">
         <v>2</v>
       </c>
       <c r="C16" t="s">
-        <v>48</v>
+        <v>73</v>
       </c>
       <c r="D16" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+        <v>74</v>
+      </c>
+      <c r="E16" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="B17">
         <v>2</v>
       </c>
       <c r="C17" t="s">
-        <v>50</v>
+        <v>76</v>
       </c>
       <c r="D17" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+        <v>77</v>
+      </c>
+      <c r="E17" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="B18">
         <v>2</v>
       </c>
       <c r="C18" t="s">
-        <v>52</v>
+        <v>79</v>
       </c>
       <c r="D18" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+        <v>80</v>
+      </c>
+      <c r="E18" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="B19">
         <v>2</v>
       </c>
       <c r="C19" t="s">
-        <v>54</v>
+        <v>82</v>
       </c>
       <c r="D19" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+        <v>83</v>
+      </c>
+      <c r="E19" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B20">
         <v>2</v>
       </c>
       <c r="C20" t="s">
-        <v>56</v>
+        <v>85</v>
       </c>
       <c r="D20" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+        <v>86</v>
+      </c>
+      <c r="E20" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="B21">
         <v>3</v>
       </c>
       <c r="C21" t="s">
-        <v>58</v>
+        <v>88</v>
       </c>
       <c r="D21" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+        <v>89</v>
+      </c>
+      <c r="E21" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="B22">
         <v>3</v>
       </c>
       <c r="C22" t="s">
-        <v>59</v>
+        <v>91</v>
       </c>
       <c r="D22" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+        <v>92</v>
+      </c>
+      <c r="E22" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="B23">
         <v>3</v>
       </c>
       <c r="C23" t="s">
-        <v>60</v>
+        <v>94</v>
       </c>
       <c r="D23" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+        <v>95</v>
+      </c>
+      <c r="E23" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B24">
         <v>1</v>
       </c>
       <c r="C24" t="s">
-        <v>62</v>
+        <v>97</v>
       </c>
       <c r="D24" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+        <v>98</v>
+      </c>
+      <c r="E24" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="B25">
         <v>2</v>
       </c>
       <c r="C25" t="s">
-        <v>64</v>
+        <v>100</v>
       </c>
       <c r="D25" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+        <v>101</v>
+      </c>
+      <c r="E25" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="B26">
         <v>2</v>
       </c>
       <c r="C26" t="s">
-        <v>66</v>
+        <v>103</v>
       </c>
       <c r="D26" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+        <v>104</v>
+      </c>
+      <c r="E26" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="B27">
         <v>2</v>
       </c>
       <c r="C27" t="s">
-        <v>67</v>
+        <v>106</v>
       </c>
       <c r="D27" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+        <v>107</v>
+      </c>
+      <c r="E27" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="B28">
         <v>2</v>
       </c>
       <c r="C28" t="s">
-        <v>68</v>
+        <v>109</v>
       </c>
       <c r="D28" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+        <v>110</v>
+      </c>
+      <c r="E28" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B29">
         <v>1</v>
       </c>
       <c r="C29" t="s">
-        <v>69</v>
+        <v>112</v>
       </c>
       <c r="D29" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+        <v>113</v>
+      </c>
+      <c r="E29" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="B30">
         <v>2</v>
       </c>
       <c r="C30" t="s">
-        <v>71</v>
+        <v>115</v>
       </c>
       <c r="D30" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+        <v>116</v>
+      </c>
+      <c r="E30" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B31">
         <v>2</v>
       </c>
       <c r="C31" t="s">
-        <v>73</v>
+        <v>118</v>
       </c>
       <c r="D31" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+        <v>119</v>
+      </c>
+      <c r="E31" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="B32">
         <v>3</v>
       </c>
       <c r="C32" t="s">
-        <v>75</v>
+        <v>121</v>
       </c>
       <c r="D32" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+        <v>89</v>
+      </c>
+      <c r="E32" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="B33">
         <v>3</v>
       </c>
       <c r="C33" t="s">
-        <v>76</v>
+        <v>123</v>
       </c>
       <c r="D33" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+        <v>124</v>
+      </c>
+      <c r="E33" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B34">
         <v>2</v>
       </c>
       <c r="C34" t="s">
-        <v>77</v>
+        <v>126</v>
       </c>
       <c r="D34" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+        <v>127</v>
+      </c>
+      <c r="E34" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="B35">
         <v>3</v>
       </c>
       <c r="C35" t="s">
-        <v>79</v>
+        <v>129</v>
       </c>
       <c r="D35" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+        <v>89</v>
+      </c>
+      <c r="E35" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="B36">
         <v>3</v>
       </c>
       <c r="C36" t="s">
-        <v>80</v>
+        <v>131</v>
       </c>
       <c r="D36" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+        <v>132</v>
+      </c>
+      <c r="E36" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="B37">
         <v>3</v>
       </c>
       <c r="C37" t="s">
-        <v>81</v>
+        <v>134</v>
       </c>
       <c r="D37" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+        <v>135</v>
+      </c>
+      <c r="E37" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B38">
         <v>1</v>
       </c>
       <c r="C38" t="s">
-        <v>82</v>
+        <v>137</v>
       </c>
       <c r="D38" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+        <v>138</v>
+      </c>
+      <c r="E38" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="B39">
         <v>2</v>
       </c>
       <c r="C39" t="s">
-        <v>84</v>
+        <v>140</v>
       </c>
       <c r="D39" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+        <v>141</v>
+      </c>
+      <c r="E39" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="B40">
         <v>2</v>
       </c>
       <c r="C40" t="s">
-        <v>86</v>
+        <v>143</v>
       </c>
       <c r="D40" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+        <v>144</v>
+      </c>
+      <c r="E40" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B41">
         <v>1</v>
       </c>
       <c r="C41" s="5" t="s">
-        <v>120</v>
+        <v>146</v>
       </c>
       <c r="D41" s="5" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+        <v>147</v>
+      </c>
+      <c r="E41" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="B42">
         <v>2</v>
       </c>
       <c r="C42" s="5" t="s">
-        <v>122</v>
+        <v>149</v>
       </c>
       <c r="D42" s="5" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+        <v>53</v>
+      </c>
+      <c r="E42" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="B43">
         <v>2</v>
       </c>
       <c r="C43" s="5" t="s">
-        <v>123</v>
+        <v>151</v>
       </c>
       <c r="D43" s="5" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+        <v>152</v>
+      </c>
+      <c r="E43" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="B44">
         <v>2</v>
       </c>
       <c r="C44" s="5" t="s">
-        <v>125</v>
+        <v>154</v>
       </c>
       <c r="D44" s="5" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+        <v>155</v>
+      </c>
+      <c r="E44" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B45">
         <v>1</v>
       </c>
       <c r="C45" s="5" t="s">
-        <v>127</v>
+        <v>157</v>
       </c>
       <c r="D45" s="5" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+        <v>158</v>
+      </c>
+      <c r="E45" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="B46">
         <v>2</v>
       </c>
       <c r="C46" s="5" t="s">
-        <v>129</v>
+        <v>160</v>
       </c>
       <c r="D46" s="5" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+        <v>161</v>
+      </c>
+      <c r="E46" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="B47">
         <v>2</v>
       </c>
       <c r="C47" s="5" t="s">
-        <v>131</v>
+        <v>163</v>
       </c>
       <c r="D47" s="5" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+        <v>164</v>
+      </c>
+      <c r="E47" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B48">
         <v>1</v>
       </c>
       <c r="C48" s="5" t="s">
-        <v>133</v>
+        <v>166</v>
       </c>
       <c r="D48" s="5" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+        <v>167</v>
+      </c>
+      <c r="E48" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="B49">
         <v>2</v>
       </c>
       <c r="C49" s="5" t="s">
-        <v>135</v>
+        <v>169</v>
       </c>
       <c r="D49" s="5" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+        <v>170</v>
+      </c>
+      <c r="E49" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="B50">
         <v>2</v>
       </c>
       <c r="C50" s="5" t="s">
-        <v>137</v>
+        <v>172</v>
       </c>
       <c r="D50" s="5" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+        <v>173</v>
+      </c>
+      <c r="E50" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="B51">
         <v>2</v>
       </c>
       <c r="C51" s="5" t="s">
-        <v>139</v>
+        <v>175</v>
       </c>
       <c r="D51" s="5" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+        <v>176</v>
+      </c>
+      <c r="E51" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="B52">
         <v>2</v>
       </c>
       <c r="C52" s="5" t="s">
-        <v>141</v>
+        <v>178</v>
       </c>
       <c r="D52" s="5" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+        <v>179</v>
+      </c>
+      <c r="E52" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="B53">
         <v>2</v>
       </c>
       <c r="C53" s="5" t="s">
-        <v>143</v>
+        <v>181</v>
       </c>
       <c r="D53" s="5" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+        <v>182</v>
+      </c>
+      <c r="E53" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B54">
         <v>1</v>
       </c>
       <c r="C54" s="5" t="s">
-        <v>145</v>
+        <v>184</v>
       </c>
       <c r="D54" s="5" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+        <v>185</v>
+      </c>
+      <c r="E54" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="B55">
         <v>2</v>
       </c>
       <c r="C55" s="5" t="s">
-        <v>147</v>
+        <v>187</v>
       </c>
       <c r="D55" s="5" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+        <v>188</v>
+      </c>
+      <c r="E55" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="B56">
         <v>2</v>
       </c>
       <c r="C56" s="5" t="s">
-        <v>149</v>
+        <v>190</v>
       </c>
       <c r="D56" s="5" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+        <v>191</v>
+      </c>
+      <c r="E56" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="B57">
         <v>2</v>
       </c>
       <c r="C57" s="5" t="s">
-        <v>151</v>
+        <v>193</v>
       </c>
       <c r="D57" s="5" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+        <v>194</v>
+      </c>
+      <c r="E57" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="B58">
         <v>2</v>
       </c>
       <c r="C58" s="5" t="s">
-        <v>153</v>
+        <v>196</v>
       </c>
       <c r="D58" s="5" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+        <v>197</v>
+      </c>
+      <c r="E58" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B59">
         <v>1</v>
       </c>
       <c r="C59" s="5" t="s">
-        <v>155</v>
+        <v>199</v>
       </c>
       <c r="D59" s="5" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+        <v>200</v>
+      </c>
+      <c r="E59" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B60">
         <v>2</v>
       </c>
       <c r="C60" s="5" t="s">
-        <v>157</v>
+        <v>202</v>
       </c>
       <c r="D60" s="5" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+        <v>203</v>
+      </c>
+      <c r="E60" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="B61">
         <v>3</v>
       </c>
       <c r="C61" s="5" t="s">
-        <v>159</v>
+        <v>205</v>
       </c>
       <c r="D61" s="5" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+        <v>206</v>
+      </c>
+      <c r="E61" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="B62">
         <v>3</v>
       </c>
       <c r="C62" s="5" t="s">
-        <v>161</v>
+        <v>208</v>
       </c>
       <c r="D62" s="5" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+        <v>209</v>
+      </c>
+      <c r="E62" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B63">
         <v>2</v>
       </c>
       <c r="C63" s="5" t="s">
-        <v>163</v>
+        <v>211</v>
       </c>
       <c r="D63" s="5" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+        <v>200</v>
+      </c>
+      <c r="E63" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="B64">
         <v>3</v>
       </c>
       <c r="C64" s="5" t="s">
-        <v>164</v>
+        <v>213</v>
       </c>
       <c r="D64" s="5" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+        <v>214</v>
+      </c>
+      <c r="E64" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="B65">
         <v>3</v>
       </c>
       <c r="C65" s="5" t="s">
-        <v>166</v>
+        <v>216</v>
       </c>
       <c r="D65" s="5" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+        <v>217</v>
+      </c>
+      <c r="E65" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="B66">
         <v>3</v>
       </c>
       <c r="C66" s="5" t="s">
-        <v>168</v>
+        <v>219</v>
       </c>
       <c r="D66" s="5" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+        <v>220</v>
+      </c>
+      <c r="E66" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="B67">
         <v>3</v>
       </c>
       <c r="C67" s="5" t="s">
-        <v>170</v>
+        <v>222</v>
       </c>
       <c r="D67" s="5" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+        <v>223</v>
+      </c>
+      <c r="E67" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="B68">
         <v>3</v>
       </c>
       <c r="C68" s="5" t="s">
-        <v>172</v>
+        <v>225</v>
       </c>
       <c r="D68" s="5" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+        <v>226</v>
+      </c>
+      <c r="E68" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="B69">
         <v>3</v>
       </c>
       <c r="C69" s="5" t="s">
-        <v>174</v>
+        <v>228</v>
       </c>
       <c r="D69" s="5" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+        <v>229</v>
+      </c>
+      <c r="E69" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="B70">
         <v>3</v>
       </c>
       <c r="C70" s="5" t="s">
-        <v>176</v>
+        <v>231</v>
       </c>
       <c r="D70" s="5" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+        <v>232</v>
+      </c>
+      <c r="E70" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B71">
         <v>1</v>
       </c>
       <c r="C71" s="5" t="s">
-        <v>178</v>
+        <v>234</v>
       </c>
       <c r="D71" s="5" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+        <v>235</v>
+      </c>
+      <c r="E71" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="B72">
         <v>2</v>
       </c>
       <c r="C72" s="5" t="s">
-        <v>180</v>
+        <v>237</v>
       </c>
       <c r="D72" s="5" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+        <v>238</v>
+      </c>
+      <c r="E72" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="B73">
         <v>2</v>
       </c>
       <c r="C73" s="5" t="s">
-        <v>182</v>
+        <v>240</v>
       </c>
       <c r="D73" s="5" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+        <v>241</v>
+      </c>
+      <c r="E73" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="B74">
         <v>2</v>
       </c>
       <c r="C74" s="5" t="s">
-        <v>184</v>
+        <v>243</v>
       </c>
       <c r="D74" s="5" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+        <v>244</v>
+      </c>
+      <c r="E74" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="B75">
         <v>2</v>
       </c>
       <c r="C75" s="5" t="s">
-        <v>186</v>
+        <v>246</v>
       </c>
       <c r="D75" s="5" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+        <v>247</v>
+      </c>
+      <c r="E75" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="B76">
         <v>2</v>
       </c>
       <c r="C76" s="5" t="s">
-        <v>188</v>
+        <v>249</v>
       </c>
       <c r="D76" s="5" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+        <v>250</v>
+      </c>
+      <c r="E76" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B77">
         <v>1</v>
       </c>
       <c r="C77" s="5" t="s">
-        <v>190</v>
+        <v>252</v>
       </c>
       <c r="D77" s="5" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+        <v>253</v>
+      </c>
+      <c r="E77" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="B78">
         <v>2</v>
       </c>
       <c r="C78" s="5" t="s">
-        <v>192</v>
+        <v>255</v>
       </c>
       <c r="D78" s="5" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+        <v>256</v>
+      </c>
+      <c r="E78" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="B79">
         <v>2</v>
       </c>
       <c r="C79" s="5" t="s">
-        <v>194</v>
+        <v>258</v>
       </c>
       <c r="D79" s="5" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+        <v>259</v>
+      </c>
+      <c r="E79" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="B80">
         <v>2</v>
       </c>
       <c r="C80" s="5" t="s">
-        <v>196</v>
+        <v>261</v>
       </c>
       <c r="D80" s="5" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+        <v>262</v>
+      </c>
+      <c r="E80" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="B81">
         <v>2</v>
       </c>
       <c r="C81" s="5" t="s">
-        <v>198</v>
+        <v>264</v>
       </c>
       <c r="D81" s="5" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+        <v>265</v>
+      </c>
+      <c r="E81" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B82">
         <v>1</v>
       </c>
       <c r="C82" s="5" t="s">
-        <v>200</v>
+        <v>267</v>
       </c>
       <c r="D82" s="5" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+        <v>268</v>
+      </c>
+      <c r="E82" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="B83">
         <v>2</v>
       </c>
       <c r="C83" s="5" t="s">
-        <v>202</v>
+        <v>270</v>
       </c>
       <c r="D83" s="5" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+        <v>271</v>
+      </c>
+      <c r="E83" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="B84">
         <v>2</v>
       </c>
       <c r="C84" s="5" t="s">
-        <v>204</v>
+        <v>273</v>
       </c>
       <c r="D84" s="5" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+        <v>274</v>
+      </c>
+      <c r="E84" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="B85">
         <v>2</v>
       </c>
       <c r="C85" s="5" t="s">
-        <v>206</v>
+        <v>276</v>
       </c>
       <c r="D85" s="5" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+        <v>277</v>
+      </c>
+      <c r="E85" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B86">
         <v>1</v>
       </c>
       <c r="C86" s="5" t="s">
-        <v>208</v>
+        <v>279</v>
       </c>
       <c r="D86" s="5" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+        <v>280</v>
+      </c>
+      <c r="E86" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="B87">
         <v>2</v>
       </c>
       <c r="C87" s="5" t="s">
-        <v>210</v>
+        <v>282</v>
       </c>
       <c r="D87" s="5" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+        <v>283</v>
+      </c>
+      <c r="E87" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="B88">
         <v>2</v>
       </c>
       <c r="C88" s="5" t="s">
-        <v>212</v>
+        <v>285</v>
       </c>
       <c r="D88" s="5" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+        <v>286</v>
+      </c>
+      <c r="E88" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="B89">
         <v>2</v>
       </c>
       <c r="C89" s="5" t="s">
-        <v>214</v>
+        <v>288</v>
       </c>
       <c r="D89" s="5" t="s">
-        <v>215</v>
+        <v>289</v>
+      </c>
+      <c r="E89" t="s">
+        <v>290</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3FEDF4EA-E6F0-8342-ADE8-1074D43DB102}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2504,18 +3015,18 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>6</v>
+        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>6</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -2524,7 +3035,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A78255AD-6FD9-F441-8C48-7096C47B1FCA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView zoomScale="165" workbookViewId="0">
@@ -2539,13 +3050,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>7</v>
+        <v>291</v>
       </c>
       <c r="B1" t="s">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="C1" t="s">
-        <v>2</v>
+        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
@@ -2553,69 +3064,68 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>95</v>
+        <v>292</v>
       </c>
       <c r="C2" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>90</v>
+        <v>294</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>91</v>
+        <v>296</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>92</v>
+        <v>298</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>93</v>
+        <v>300</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>94</v>
+        <v>302</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>101</v>
+        <v>303</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
